--- a/ELSA_Speech_Analyzer_test_cases.xlsx
+++ b/ELSA_Speech_Analyzer_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kien/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F93F6A-AFCB-1E40-AFA5-F636C6FFE52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E20A1F-266B-6B45-B70D-8ED74A713938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="18880" activeTab="1" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="181">
   <si>
     <t>Test Case No</t>
   </si>
@@ -555,6 +555,99 @@
 2. Enter an invalid email (e.g., user@domain)
 3. Enter a valid Password
 3. Click on the "Create an account" button</t>
+  </si>
+  <si>
+    <t>Password Does Not Meet Criteria</t>
+  </si>
+  <si>
+    <t>Test the system when the password does not meet the required format</t>
+  </si>
+  <si>
+    <t>Password does not meet the criteria (e.g., no special character, no uppercase letter)</t>
+  </si>
+  <si>
+    <t>1. Enter a valid Full Name.
+2. Enter a valid Email.
+3. Enter a Password that does not meet the criteria (e.g., password123)
+4. Click on the "Create an account" button</t>
+  </si>
+  <si>
+    <t>Error message displayed: "The email address or password you entered is invalid"</t>
+  </si>
+  <si>
+    <t>Email Already Registered</t>
+  </si>
+  <si>
+    <t>Test sign-up with an email that is already in use</t>
+  </si>
+  <si>
+    <t>The email has already been used for registration</t>
+  </si>
+  <si>
+    <t>1. Enter an email that is already registered
+2. Enter a valid Password and Full Name
+3. Click on the "Create an account" button</t>
+  </si>
+  <si>
+    <t>Error message displayed: "This email is already linked to an existing account. Please sign in by using the same email address and password."</t>
+  </si>
+  <si>
+    <t>Exceeding Signup Attempts</t>
+  </si>
+  <si>
+    <t>Test the behavior of the system after multiple failed sign-up attempts</t>
+  </si>
+  <si>
+    <t>User attempts to sign up multiple times with invalid data</t>
+  </si>
+  <si>
+    <t>1. Attempt to sign up with invalid or incomplete data (e.g., weak password or invalid email)
+2. Repeat for several attempts</t>
+  </si>
+  <si>
+    <t>After multiple failed attempts, the system might show a warning or lock the user out for a short period, with a message like "Too many failed attempts. Please try again later."</t>
+  </si>
+  <si>
+    <t>Ensure the sign-up page is displayed in the correct language based on user settings or auto-detection</t>
+  </si>
+  <si>
+    <t>User has selected a language preference</t>
+  </si>
+  <si>
+    <t>Check if the page content is in the correct language</t>
+  </si>
+  <si>
+    <t>The sign-up page should display in the selected language</t>
+  </si>
+  <si>
+    <t>Test the accessibility of the sign-up page with screen readers or other assistive technologies</t>
+  </si>
+  <si>
+    <t>User has a screen reader enabled</t>
+  </si>
+  <si>
+    <t>Navigate through the fields using the screen reader</t>
+  </si>
+  <si>
+    <t>The screen reader should correctly announce all elements (e.g., "Full Name", "Email", "Password")</t>
+  </si>
+  <si>
+    <t>Test if the sign-up page loads within acceptable time limits</t>
+  </si>
+  <si>
+    <t>Measure the page load time when accessing the sign-up page</t>
+  </si>
+  <si>
+    <t>Test if the system can handle multiple simultaneous sign-up attempts</t>
+  </si>
+  <si>
+    <t>Multiple users are attempting to sign-up at the same time</t>
+  </si>
+  <si>
+    <t>Simulate multiple users trying to sign-up</t>
+  </si>
+  <si>
+    <t>The system should handle multiple sign-up without crashing or slowing down</t>
   </si>
 </sst>
 </file>
@@ -645,7 +738,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -680,6 +773,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14D43D9-2032-0A43-893C-9158CD26425C}">
   <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1881,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20692251-A75C-834F-A180-1C00776AA274}">
   <dimension ref="C3:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2035,7 +2131,7 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C9" s="10">
+      <c r="C9" s="7">
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -2053,7 +2149,7 @@
       <c r="H9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2081,7 +2177,7 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>8</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -2099,7 +2195,7 @@
       <c r="H11" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2127,7 +2223,7 @@
       </c>
     </row>
     <row r="13" spans="3:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C13" s="10">
+      <c r="C13" s="7">
         <v>10</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -2145,7 +2241,7 @@
       <c r="H13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2173,7 +2269,7 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C15" s="10">
+      <c r="C15" s="7">
         <v>12</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -2191,7 +2287,7 @@
       <c r="H15" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2219,7 +2315,7 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -2235,88 +2331,172 @@
         <v>151</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C18" s="10">
         <v>15</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="10">
+      <c r="D18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="C19" s="7">
         <v>16</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="68" x14ac:dyDescent="0.2">
       <c r="C20" s="10">
         <v>17</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="10">
+      <c r="D20" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="C21" s="7">
         <v>18</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C22" s="10">
         <v>19</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="10">
+      <c r="D22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="C23" s="7">
         <v>20</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C24" s="10">
         <v>21</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="5"/>
+      <c r="D24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ELSA_Speech_Analyzer_test_cases.xlsx
+++ b/ELSA_Speech_Analyzer_test_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kien/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kien/Documents/GitHub/playwright-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E20A1F-266B-6B45-B70D-8ED74A713938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C353762-E65F-3F48-91D2-1373877B10DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="18880" activeTab="1" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
+    <workbookView xWindow="-19100" yWindow="-33340" windowWidth="30080" windowHeight="33340" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="221">
   <si>
     <t>Test Case No</t>
   </si>
@@ -649,12 +649,132 @@
   <si>
     <t>The system should handle multiple sign-up without crashing or slowing down</t>
   </si>
+  <si>
+    <t>Signup_01</t>
+  </si>
+  <si>
+    <t>Signup_02</t>
+  </si>
+  <si>
+    <t>Signup_03</t>
+  </si>
+  <si>
+    <t>Signup_04</t>
+  </si>
+  <si>
+    <t>Signup_05</t>
+  </si>
+  <si>
+    <t>Signup_06</t>
+  </si>
+  <si>
+    <t>Signup_07</t>
+  </si>
+  <si>
+    <t>Signup_08</t>
+  </si>
+  <si>
+    <t>Signup_09</t>
+  </si>
+  <si>
+    <t>Signup_10</t>
+  </si>
+  <si>
+    <t>Signup_11</t>
+  </si>
+  <si>
+    <t>Signup_12</t>
+  </si>
+  <si>
+    <t>Signup_13</t>
+  </si>
+  <si>
+    <t>Signup_14</t>
+  </si>
+  <si>
+    <t>Signup_15</t>
+  </si>
+  <si>
+    <t>Signup_16</t>
+  </si>
+  <si>
+    <t>Signup_17</t>
+  </si>
+  <si>
+    <t>Signup_18</t>
+  </si>
+  <si>
+    <t>Signup_19</t>
+  </si>
+  <si>
+    <t>Signup_20</t>
+  </si>
+  <si>
+    <t>Signup_21</t>
+  </si>
+  <si>
+    <t>Login_01</t>
+  </si>
+  <si>
+    <t>Login_02</t>
+  </si>
+  <si>
+    <t>Login_03</t>
+  </si>
+  <si>
+    <t>Login_04</t>
+  </si>
+  <si>
+    <t>Login_05</t>
+  </si>
+  <si>
+    <t>Login_06</t>
+  </si>
+  <si>
+    <t>Login_07</t>
+  </si>
+  <si>
+    <t>Login_08</t>
+  </si>
+  <si>
+    <t>Login_09</t>
+  </si>
+  <si>
+    <t>Login_10</t>
+  </si>
+  <si>
+    <t>Login_11</t>
+  </si>
+  <si>
+    <t>Login_12</t>
+  </si>
+  <si>
+    <t>Login_13</t>
+  </si>
+  <si>
+    <t>Login_14</t>
+  </si>
+  <si>
+    <t>Login_15</t>
+  </si>
+  <si>
+    <t>Login_16</t>
+  </si>
+  <si>
+    <t>Login_17</t>
+  </si>
+  <si>
+    <t>Login_18</t>
+  </si>
+  <si>
+    <t>Login_19</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -674,6 +794,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -752,26 +878,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -782,49 +908,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1063,13 +1146,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1085,7 +1161,54 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1105,6 +1228,9 @@
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1119,15 +1245,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29FE01D-C35C-0A4E-8E72-3F6DD5E6FF8F}" name="Table1" displayName="Table1" ref="B3:H22" totalsRowShown="0" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29FE01D-C35C-0A4E-8E72-3F6DD5E6FF8F}" name="Table1" displayName="Table1" ref="B3:H22" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="B3:H22" xr:uid="{A29FE01D-C35C-0A4E-8E72-3F6DD5E6FF8F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E4A00D05-4B41-CA47-9E43-DBE37D6F0698}" name="Test Case No" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{82415AA4-57CC-2947-B509-D0A475319F4F}" name="Test Case Title" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{BBECB668-843F-714C-A6ED-078333FBA512}" name="Test Case Description" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{6DD9350B-3593-5240-B91E-881B23293BD5}" name="Preconditions" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{8E945F63-DFAB-7C4A-8214-DC86D7A99CC7}" name="Test Step" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{0C610DCC-0C08-2C4D-9664-7B1878F8E8BA}" name="Expcted Result" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{E4A00D05-4B41-CA47-9E43-DBE37D6F0698}" name="Test Case No" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{82415AA4-57CC-2947-B509-D0A475319F4F}" name="Test Case Title" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BBECB668-843F-714C-A6ED-078333FBA512}" name="Test Case Description" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{6DD9350B-3593-5240-B91E-881B23293BD5}" name="Preconditions" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{8E945F63-DFAB-7C4A-8214-DC86D7A99CC7}" name="Test Step" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{0C610DCC-0C08-2C4D-9664-7B1878F8E8BA}" name="Expcted Result" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{19BBB936-0E5E-D94E-874E-5BAD3E35CF82}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1135,16 +1261,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F419D0A-84F8-844D-B1AD-506174E57F9B}" name="Table2" displayName="Table2" ref="C3:I24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F419D0A-84F8-844D-B1AD-506174E57F9B}" name="Table2" displayName="Table2" ref="C3:I24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="C3:I24" xr:uid="{5F419D0A-84F8-844D-B1AD-506174E57F9B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A2B721FF-AC43-F444-A3C5-1DD5D4AECA07}" name="Test Case No" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8EBC835B-9C7E-1740-9321-D521331AA57D}" name="Test Case Title" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{D1CA0047-BCE4-C945-9101-A54DBE2C7F3F}" name="Test Case Description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{5E38EDCF-01A9-6845-A7B2-FAB9D1E968BB}" name="Preconditions" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B2F6BB1C-A650-A941-95CC-91966A88064B}" name="Test Step" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A79DBED7-36E6-4348-806B-F11DF6D7A96C}" name="Expcted Result" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6915EA24-10AF-1A4E-99CA-F6A4E948E176}" name="Type" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{A2B721FF-AC43-F444-A3C5-1DD5D4AECA07}" name="Test Case No" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{8EBC835B-9C7E-1740-9321-D521331AA57D}" name="Test Case Title" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{D1CA0047-BCE4-C945-9101-A54DBE2C7F3F}" name="Test Case Description" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5E38EDCF-01A9-6845-A7B2-FAB9D1E968BB}" name="Preconditions" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B2F6BB1C-A650-A941-95CC-91966A88064B}" name="Test Step" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A79DBED7-36E6-4348-806B-F11DF6D7A96C}" name="Expcted Result" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6915EA24-10AF-1A4E-99CA-F6A4E948E176}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1469,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14D43D9-2032-0A43-893C-9158CD26425C}">
   <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1508,8 +1634,8 @@
       </c>
     </row>
     <row r="4" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
+      <c r="B4" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -1531,8 +1657,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>2</v>
+      <c r="B5" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -1554,8 +1680,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>3</v>
+      <c r="B6" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -1577,8 +1703,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>4</v>
+      <c r="B7" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -1600,8 +1726,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B8" s="2">
-        <v>5</v>
+      <c r="B8" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -1623,8 +1749,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>6</v>
+      <c r="B9" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>32</v>
@@ -1646,8 +1772,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B10" s="2">
-        <v>7</v>
+      <c r="B10" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>38</v>
@@ -1669,8 +1795,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>8</v>
+      <c r="B11" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>43</v>
@@ -1692,8 +1818,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B12" s="2">
-        <v>9</v>
+      <c r="B12" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>47</v>
@@ -1715,8 +1841,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B13" s="2">
-        <v>10</v>
+      <c r="B13" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>51</v>
@@ -1738,8 +1864,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B14" s="2">
-        <v>11</v>
+      <c r="B14" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>56</v>
@@ -1761,8 +1887,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B15" s="2">
-        <v>12</v>
+      <c r="B15" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>61</v>
@@ -1784,8 +1910,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>13</v>
+      <c r="B16" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>66</v>
@@ -1807,8 +1933,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="B17" s="2">
-        <v>14</v>
+      <c r="B17" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>71</v>
@@ -1830,8 +1956,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B18" s="2">
-        <v>15</v>
+      <c r="B18" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>76</v>
@@ -1853,8 +1979,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="2">
-        <v>16</v>
+      <c r="B19" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>82</v>
@@ -1876,8 +2002,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="B20" s="2">
-        <v>17</v>
+      <c r="B20" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>87</v>
@@ -1899,8 +2025,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B21" s="2">
-        <v>18</v>
+      <c r="B21" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>93</v>
@@ -1922,8 +2048,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B22" s="2">
-        <v>19</v>
+      <c r="B22" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>98</v>
@@ -1966,6 +2092,7 @@
       <c r="B29" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1977,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20692251-A75C-834F-A180-1C00776AA274}">
   <dimension ref="C3:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2016,8 +2143,8 @@
       </c>
     </row>
     <row r="4" spans="3:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="C4" s="5">
-        <v>1</v>
+      <c r="C4" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>103</v>
@@ -2039,8 +2166,8 @@
       </c>
     </row>
     <row r="5" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C5" s="7">
-        <v>2</v>
+      <c r="C5" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>108</v>
@@ -2062,8 +2189,8 @@
       </c>
     </row>
     <row r="6" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C6" s="5">
-        <v>3</v>
+      <c r="C6" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>112</v>
@@ -2085,8 +2212,8 @@
       </c>
     </row>
     <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C7" s="7">
-        <v>4</v>
+      <c r="C7" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>117</v>
@@ -2108,8 +2235,8 @@
       </c>
     </row>
     <row r="8" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C8" s="10">
-        <v>5</v>
+      <c r="C8" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>121</v>
@@ -2131,8 +2258,8 @@
       </c>
     </row>
     <row r="9" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C9" s="7">
-        <v>6</v>
+      <c r="C9" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>123</v>
@@ -2154,8 +2281,8 @@
       </c>
     </row>
     <row r="10" spans="3:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C10" s="10">
-        <v>7</v>
+      <c r="C10" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>124</v>
@@ -2177,8 +2304,8 @@
       </c>
     </row>
     <row r="11" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C11" s="7">
-        <v>8</v>
+      <c r="C11" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>131</v>
@@ -2200,8 +2327,8 @@
       </c>
     </row>
     <row r="12" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C12" s="10">
-        <v>9</v>
+      <c r="C12" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>135</v>
@@ -2223,8 +2350,8 @@
       </c>
     </row>
     <row r="13" spans="3:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C13" s="7">
-        <v>10</v>
+      <c r="C13" s="7" t="s">
+        <v>190</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>139</v>
@@ -2246,8 +2373,8 @@
       </c>
     </row>
     <row r="14" spans="3:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C14" s="10">
-        <v>11</v>
+      <c r="C14" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>38</v>
@@ -2269,8 +2396,8 @@
       </c>
     </row>
     <row r="15" spans="3:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C15" s="7">
-        <v>12</v>
+      <c r="C15" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>47</v>
@@ -2292,8 +2419,8 @@
       </c>
     </row>
     <row r="16" spans="3:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C16" s="10">
-        <v>13</v>
+      <c r="C16" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>51</v>
@@ -2315,8 +2442,8 @@
       </c>
     </row>
     <row r="17" spans="3:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="C17" s="7">
-        <v>14</v>
+      <c r="C17" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>56</v>
@@ -2338,8 +2465,8 @@
       </c>
     </row>
     <row r="18" spans="3:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="C18" s="10">
-        <v>15</v>
+      <c r="C18" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>152</v>
@@ -2361,8 +2488,8 @@
       </c>
     </row>
     <row r="19" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C19" s="7">
-        <v>16</v>
+      <c r="C19" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>157</v>
@@ -2384,8 +2511,8 @@
       </c>
     </row>
     <row r="20" spans="3:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="C20" s="10">
-        <v>17</v>
+      <c r="C20" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>162</v>
@@ -2407,8 +2534,8 @@
       </c>
     </row>
     <row r="21" spans="3:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="C21" s="7">
-        <v>18</v>
+      <c r="C21" s="7" t="s">
+        <v>198</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>82</v>
@@ -2430,8 +2557,8 @@
       </c>
     </row>
     <row r="22" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C22" s="10">
-        <v>19</v>
+      <c r="C22" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>87</v>
@@ -2453,8 +2580,8 @@
       </c>
     </row>
     <row r="23" spans="3:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="C23" s="7">
-        <v>20</v>
+      <c r="C23" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>93</v>
@@ -2476,8 +2603,8 @@
       </c>
     </row>
     <row r="24" spans="3:9" ht="51" x14ac:dyDescent="0.2">
-      <c r="C24" s="10">
-        <v>21</v>
+      <c r="C24" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>98</v>
@@ -2499,6 +2626,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/ELSA_Speech_Analyzer_test_cases.xlsx
+++ b/ELSA_Speech_Analyzer_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kien/Documents/GitHub/playwright-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C353762-E65F-3F48-91D2-1373877B10DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8A208-9511-2F47-836C-72A8071B3837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19100" yWindow="-33340" windowWidth="30080" windowHeight="33340" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="18880" activeTab="1" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14D43D9-2032-0A43-893C-9158CD26425C}">
   <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20692251-A75C-834F-A180-1C00776AA274}">
   <dimension ref="C3:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ELSA_Speech_Analyzer_test_cases.xlsx
+++ b/ELSA_Speech_Analyzer_test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kien/Documents/GitHub/playwright-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB8A208-9511-2F47-836C-72A8071B3837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C63E04D-385D-FB42-B569-13D5FD7ACE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="18880" activeTab="1" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
+    <workbookView xWindow="880" yWindow="760" windowWidth="29360" windowHeight="18880" xr2:uid="{47DE5386-0A85-024E-AED1-632F21879BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="221">
   <si>
-    <t>Test Case No</t>
-  </si>
-  <si>
     <t>Test Case Title</t>
   </si>
   <si>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>Login_19</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1248,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A29FE01D-C35C-0A4E-8E72-3F6DD5E6FF8F}" name="Table1" displayName="Table1" ref="B3:H22" totalsRowShown="0" dataDxfId="18">
   <autoFilter ref="B3:H22" xr:uid="{A29FE01D-C35C-0A4E-8E72-3F6DD5E6FF8F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E4A00D05-4B41-CA47-9E43-DBE37D6F0698}" name="Test Case No" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{E4A00D05-4B41-CA47-9E43-DBE37D6F0698}" name="Test Case ID" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{82415AA4-57CC-2947-B509-D0A475319F4F}" name="Test Case Title" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{BBECB668-843F-714C-A6ED-078333FBA512}" name="Test Case Description" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{6DD9350B-3593-5240-B91E-881B23293BD5}" name="Preconditions" dataDxfId="14"/>
@@ -1264,7 +1264,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F419D0A-84F8-844D-B1AD-506174E57F9B}" name="Table2" displayName="Table2" ref="C3:I24" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="C3:I24" xr:uid="{5F419D0A-84F8-844D-B1AD-506174E57F9B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A2B721FF-AC43-F444-A3C5-1DD5D4AECA07}" name="Test Case No" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{A2B721FF-AC43-F444-A3C5-1DD5D4AECA07}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{8EBC835B-9C7E-1740-9321-D521331AA57D}" name="Test Case Title" dataDxfId="5"/>
     <tableColumn id="3" xr3:uid="{D1CA0047-BCE4-C945-9101-A54DBE2C7F3F}" name="Test Case Description" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{5E38EDCF-01A9-6845-A7B2-FAB9D1E968BB}" name="Preconditions" dataDxfId="3"/>
@@ -1595,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14D43D9-2032-0A43-893C-9158CD26425C}">
   <dimension ref="B3:H29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,462 +1612,462 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="85" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="H16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="H17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="H21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="H22" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
@@ -2104,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20692251-A75C-834F-A180-1C00776AA274}">
   <dimension ref="C3:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2121,508 +2121,508 @@
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C3" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>3</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:9" ht="136" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>107</v>
-      </c>
       <c r="I4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C5" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="I5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C7" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C9" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C10" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C11" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="I11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C12" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="I12" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C13" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="G13" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>142</v>
-      </c>
       <c r="H14" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C15" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="3:9" ht="68" x14ac:dyDescent="0.2">
       <c r="C17" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="3:9" ht="85" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="I18" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="I19" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="3:9" ht="68" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="I20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="3:9" ht="68" x14ac:dyDescent="0.2">
       <c r="C21" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>170</v>
-      </c>
       <c r="I21" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="I22" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="3:9" ht="34" x14ac:dyDescent="0.2">
       <c r="C23" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E23" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="3:9" ht="51" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
